--- a/similarities/split_global/harmonic_similarity_timestamps_206.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_206.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:11.040000', '0:00:21.560000')]</t>
+          <t>('0:00:26.040000', '0:00:59.820000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:42.520000', '0:00:55.620000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=11.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=26.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>jaah_22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:23.780000', '0:00:28.140000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:23.840000')]</t>
+          <t>('0:00:37.850000', '0:00:45.930000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=23.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-10#t=37.85</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:05.650000', '0:00:08.920000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:05.780000', '0:01:19.440000')]</t>
+          <t>('0:00:05.915850', '0:00:20.672131')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=5.65']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.78']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C#:min', 'G#:7', 'C#:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:24.282834', '0:00:31.446190')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:47.400000', '0:00:54.840000')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=24.282834']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=47.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min'], ['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:02.660000', '0:00:10.620000'), ('0:00:02.020000', '0:00:08.580000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:22.020000'), ('0:00:08.900000', '0:00:19.280000')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=8.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'F#:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.755487', '0:00:19.945963')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:20.240000')]</t>
+          <t>('0:00:22.370000', '0:00:40.370000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=7.755487']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:min', 'A:min', 'E:min']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:27.200000', '0:01:41.180000')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:03.831000', '0:00:12.567000')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=87.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=3.831']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'C:min/5', 'F:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'C#:min', 'F#:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:03.261000', '0:02:06.605000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.655804', '0:00:18.686825')]</t>
+          <t>('0:00:23.260000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=123.261']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-268#t=8.655804']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:05.915850', '0:00:17.734807')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000')]</t>
+          <t>('0:02:18.800000', '0:02:25.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:11.072593')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
+          <t>('0:02:20.860000', '0:02:24.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:06.160000', '0:00:23.860000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=140.86</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=6.16</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:07.380000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=42.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:22.060000', '0:00:32.500000')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
